--- a/backend/data/productos.xlsx
+++ b/backend/data/productos.xlsx
@@ -442,7 +442,7 @@
         <v>4500</v>
       </c>
       <c r="F2">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G2" t="str">
         <v>1748485861748-Screenshot_2025-05-28_233042.png</v>
@@ -488,7 +488,7 @@
         <v>450</v>
       </c>
       <c r="F4">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -511,7 +511,7 @@
         <v>2000</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -534,7 +534,7 @@
         <v>1000</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -557,7 +557,7 @@
         <v>800</v>
       </c>
       <c r="F7">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -580,7 +580,7 @@
         <v>500</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G8" t="str">
         <v/>
